--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1603994.779167583</v>
+        <v>1654362.246152328</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453903</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178668</v>
+        <v>2166967.111789207</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7468476.62808443</v>
+        <v>7917029.260206698</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -665,19 +667,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>393.8111394617748</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>77.36840186490406</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>142.5603106306325</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -874,13 +876,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>82.58773807696492</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>47.04744772239076</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>162.6580521390935</v>
       </c>
       <c r="X7" t="n">
-        <v>153.3299409080027</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1133,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1148,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>54.87142357661364</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>27.79744670745611</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>113.9817227768784</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1357,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1375,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2167749956147247</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1424,10 +1426,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>29.06736062834963</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>399.5401116061838</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1622,7 +1624,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>17.92486869005175</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1847,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1898,7 +1900,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1907,10 +1909,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>208.642724780751</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>354.8624710341901</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>128.6156879951413</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>98.41262563052153</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>262.2425928248799</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>181.8523372487124</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>215.7942570968678</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2305,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>15.02990584219688</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>197.3419125928186</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2566,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>367.6236394854355</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2716,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2773,10 +2775,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>224.1053467827937</v>
       </c>
       <c r="X28" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>144.2018606410491</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>2.129193841209417</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3035,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F32" t="n">
-        <v>320.6751611476632</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3086,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3187,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>26.98219511604263</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>359.0841816924166</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3429,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>96.21117214114204</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>153.0251390105129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3503,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>271.338631283351</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3518,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.6077930059089</v>
+        <v>128.7560630900389</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>8.924297638202884</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>65.42520756919171</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3958,10 +3960,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>105.7437518964927</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>101.6409518870423</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>34.97670245206623</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.55946887449166</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>166.4741484043117</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1788.646778172514</v>
+        <v>1277.389703984565</v>
       </c>
       <c r="C2" t="n">
-        <v>1782.562591526188</v>
+        <v>1271.305517338239</v>
       </c>
       <c r="D2" t="n">
-        <v>1378.098661619248</v>
+        <v>866.8415874313</v>
       </c>
       <c r="E2" t="n">
-        <v>963.758446136145</v>
+        <v>856.5417759886008</v>
       </c>
       <c r="F2" t="n">
-        <v>542.7280340898326</v>
+        <v>839.5517679826924</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9390043304641</v>
+        <v>430.8234838755245</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>119.9149865032425</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>58.5872416475372</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>710.3964058570388</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>710.3964058570388</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1435.413521245312</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>2079.044377662417</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2579.524527713341</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2195.764226848509</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>2195.764226848509</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.827553796599</v>
+        <v>1687.610883649055</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>58.5872416475372</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>438.9494455746209</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1163.966560962894</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N3" t="n">
-        <v>1163.966560962894</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O3" t="n">
-        <v>1163.966560962894</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="P3" t="n">
-        <v>1725.672453451424</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.6665133042532</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>648.6665133042532</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>489.1718686271631</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>489.1718686271631</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>324.5407427377544</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1502.713419943787</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1358.713106175471</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1119.164367152173</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>836.3662196982975</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>836.3662196982975</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>836.3662196982975</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>836.3662196982975</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y4" t="n">
-        <v>836.3662196982975</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.320110107049</v>
+        <v>1339.894384246108</v>
       </c>
       <c r="C5" t="n">
-        <v>1468.195519420319</v>
+        <v>929.7697935593784</v>
       </c>
       <c r="D5" t="n">
-        <v>1063.73158951338</v>
+        <v>929.346267692843</v>
       </c>
       <c r="E5" t="n">
-        <v>649.3913740302764</v>
+        <v>515.0060522097397</v>
       </c>
       <c r="F5" t="n">
-        <v>228.360961983964</v>
+        <v>498.0160442038313</v>
       </c>
       <c r="G5" t="n">
-        <v>144.9390043304641</v>
+        <v>89.28776009666342</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>306.5402972640578</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>1031.557412652331</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>1756.574528040604</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>2400.205384457709</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2672.30159063637</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2672.30159063637</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>2288.541289771539</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X5" t="n">
-        <v>2288.541289771539</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="Y5" t="n">
-        <v>2288.541289771539</v>
+        <v>1346.075159870194</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>58.5872416475372</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>719.6754135668255</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>719.6754135668255</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>1444.692528955098</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O6" t="n">
-        <v>2075.516918135407</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P6" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>695.8505477253077</v>
+        <v>704.2346197088409</v>
       </c>
       <c r="C7" t="n">
-        <v>695.8505477253077</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="D7" t="n">
-        <v>536.3559030482177</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E7" t="n">
-        <v>375.4450879165371</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>375.4450879165371</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
-        <v>208.1946968420806</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1502.713419943787</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1263.164680920489</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1263.164680920489</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V7" t="n">
-        <v>1263.164680920489</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="W7" t="n">
-        <v>1263.164680920489</v>
+        <v>1167.314180460393</v>
       </c>
       <c r="X7" t="n">
-        <v>1108.285952730587</v>
+        <v>928.9703183200762</v>
       </c>
       <c r="Y7" t="n">
-        <v>883.5502541193521</v>
+        <v>704.2346197088409</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1713.234269837386</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1707.15008319106</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.686153284121</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>888.3459378010175</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>467.315525754705</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>850.932214224331</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1563.523614036569</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1563.523614036569</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>1563.523614036569</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>2038.487731972852</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>2567.644429892003</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="Q8" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="U8" t="n">
-        <v>2873.936401996442</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="V8" t="n">
-        <v>2524.098847332923</v>
+        <v>4137.526969165108</v>
       </c>
       <c r="W8" t="n">
-        <v>2524.098847332923</v>
+        <v>3753.766668300277</v>
       </c>
       <c r="X8" t="n">
-        <v>2123.455449501876</v>
+        <v>3353.12327046923</v>
       </c>
       <c r="Y8" t="n">
-        <v>2123.455449501876</v>
+        <v>2952.18659741732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="L9" t="n">
-        <v>514.3934979128359</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="M9" t="n">
-        <v>1239.410613301109</v>
+        <v>1258.848829206251</v>
       </c>
       <c r="N9" t="n">
-        <v>1239.410613301109</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="O9" t="n">
-        <v>1239.410613301109</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.0663408531892</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>290.0663408531892</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1502.713419943787</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1502.713419943787</v>
+        <v>1375.867883064921</v>
       </c>
       <c r="U10" t="n">
-        <v>1219.915272489911</v>
+        <v>1093.069735611045</v>
       </c>
       <c r="V10" t="n">
-        <v>1219.915272489911</v>
+        <v>819.1839905505669</v>
       </c>
       <c r="W10" t="n">
-        <v>940.8456079987855</v>
+        <v>540.1143260594413</v>
       </c>
       <c r="X10" t="n">
-        <v>702.5017458584689</v>
+        <v>301.7704639191247</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.7660472472336</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>976.3129717055415</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>566.1883810188116</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>565.9694163767765</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>565.9694163767765</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F11" t="n">
-        <v>144.9390043304641</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>144.9390043304641</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>144.9390043304641</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>123.1055953709714</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
-        <v>835.6969951832094</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1560.714110571482</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2285.731225959755</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2571.87452311782</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2571.87452311782</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2188.114222252988</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>1787.470824421941</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1386.534151370031</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>707.2063554754692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1368.294527394758</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>1755.231972814054</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N12" t="n">
-        <v>1755.231972814054</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O12" t="n">
-        <v>1755.231972814054</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>1755.231972814054</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1558.625167936721</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1372.233399816631</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1132.684660793333</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>849.8865133394575</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>576.0007682789794</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>296.9311037878538</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2117.27467387779</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C14" t="n">
-        <v>1707.15008319106</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D14" t="n">
-        <v>1302.686153284121</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E14" t="n">
-        <v>888.3459378010175</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>123.1055953709714</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>835.6969951832094</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1560.714110571482</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2285.731225959755</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2911.256154407111</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>2911.256154407111</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2911.256154407111</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W14" t="n">
-        <v>2527.495853542279</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X14" t="n">
-        <v>2527.495853542279</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y14" t="n">
-        <v>2527.495853542279</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>676.1022315638701</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.921091948674</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y16" t="n">
-        <v>1335.620798342718</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D17" t="n">
         <v>1734.602869382415</v>
@@ -5546,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>183.4222192247803</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>844.5103911440685</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>844.5103911440685</v>
+        <v>916.2303367455215</v>
       </c>
       <c r="N18" t="n">
-        <v>844.5103911440685</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.467481689963</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>209.5897435862967</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C19" t="n">
-        <v>209.5897435862967</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D19" t="n">
-        <v>209.5897435862967</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E19" t="n">
-        <v>209.5897435862967</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1523.235901755391</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.687162732093</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.889015278217</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>727.0032702177389</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W19" t="n">
-        <v>447.9336057266133</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X19" t="n">
-        <v>209.5897435862967</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.5897435862967</v>
+        <v>879.2884921858141</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2093.049809820992</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.585879914052</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.245664430949</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>853.2152523846366</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>444.4869682774688</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5795,7 +5797,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>423.0977207349383</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1266.074801429505</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>2139.732893541123</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3463.374005025663</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C22" t="n">
-        <v>3292.280632587379</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D22" t="n">
         <v>3132.785987910289</v>
@@ -5935,25 +5937,25 @@
         <v>4576.912166206539</v>
       </c>
       <c r="S22" t="n">
-        <v>4393.222936662385</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T22" t="n">
-        <v>4393.222936662385</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U22" t="n">
-        <v>4393.222936662385</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V22" t="n">
-        <v>4393.222936662385</v>
+        <v>3650.199514541731</v>
       </c>
       <c r="W22" t="n">
-        <v>4114.153272171259</v>
+        <v>3371.129850050606</v>
       </c>
       <c r="X22" t="n">
-        <v>3875.809410030943</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y22" t="n">
-        <v>3651.073711419707</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -5990,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>275.6758118380055</v>
+        <v>3726.900695206644</v>
       </c>
       <c r="C25" t="n">
-        <v>275.6758118380055</v>
+        <v>3726.900695206644</v>
       </c>
       <c r="D25" t="n">
-        <v>275.6758118380055</v>
+        <v>3726.900695206644</v>
       </c>
       <c r="E25" t="n">
-        <v>275.6758118380055</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F25" t="n">
-        <v>275.6758118380055</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>108.4254207635489</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>108.4254207635489</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>3951.636393817879</v>
       </c>
       <c r="V25" t="n">
-        <v>554.7454763291312</v>
+        <v>3951.636393817879</v>
       </c>
       <c r="W25" t="n">
-        <v>275.6758118380055</v>
+        <v>3951.636393817879</v>
       </c>
       <c r="X25" t="n">
-        <v>275.6758118380055</v>
+        <v>3951.636393817879</v>
       </c>
       <c r="Y25" t="n">
-        <v>275.6758118380055</v>
+        <v>3726.900695206644</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6214,7 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G26" t="n">
         <v>93.2436976906228</v>
@@ -6306,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.13812587521</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>2083.796217986828</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>2083.796217986828</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>3453.19144771906</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>3453.19144771906</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>3293.69680304197</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V28" t="n">
-        <v>554.7454763291312</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="W28" t="n">
-        <v>275.6758118380055</v>
+        <v>3453.19144771906</v>
       </c>
       <c r="X28" t="n">
-        <v>93.2436976906228</v>
+        <v>3453.19144771906</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>3453.19144771906</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6476,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.3370701289063</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1476.984149219504</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>1194.186001765628</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.186001765628</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>915.1163372745027</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>676.772475134186</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.0367765229507</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2452.075282119331</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2041.950691432601</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.486761525662</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1223.146546042558</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F32" t="n">
         <v>899.2322418529996</v>
@@ -6734,16 +6736,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3663.876532666778</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3263.23313483573</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2862.29646178382</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6789,16 +6791,16 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1406.216283632599</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>404.0948772022105</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C34" t="n">
-        <v>404.0948772022105</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D34" t="n">
-        <v>404.0948772022105</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E34" t="n">
-        <v>404.0948772022105</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F34" t="n">
-        <v>404.0948772022105</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>236.8444861277539</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6886,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>1383.093855288175</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>1109.208110227697</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W34" t="n">
-        <v>830.1384457365714</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X34" t="n">
-        <v>591.7945835962548</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y34" t="n">
-        <v>591.7945835962548</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2140.463105868917</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>1730.338515182187</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1325.874585275247</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>911.5343697921442</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
         <v>490.5039577458317</v>
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6980,7 +6982,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2550.684285533406</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>264.3370701289063</v>
+        <v>4010.200740502562</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>3839.107368064279</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>3741.924365901509</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>3581.013550769829</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>3416.38242488042</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U37" t="n">
-        <v>1468.071746826106</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="V37" t="n">
-        <v>1194.186001765628</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="W37" t="n">
-        <v>915.1163372745027</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="X37" t="n">
-        <v>676.772475134186</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.0367765229507</v>
+        <v>4197.900446896607</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L39" t="n">
-        <v>741.8628115185547</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M39" t="n">
-        <v>741.8628115185547</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N39" t="n">
-        <v>1615.520903630173</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U40" t="n">
-        <v>828.6312213896092</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V40" t="n">
-        <v>554.7454763291312</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6758118380055</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X40" t="n">
-        <v>275.6758118380055</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y40" t="n">
-        <v>275.6758118380055</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1708.546389770622</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C41" t="n">
-        <v>1298.421799083892</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D41" t="n">
-        <v>893.957869176953</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>479.6176536938497</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F41" t="n">
-        <v>58.5872416475372</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>312.7727131152915</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>312.7727131152915</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>669.8397601674739</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>1394.856875555747</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2038.487731972852</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2567.644429892003</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2920.347640318069</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2920.347640318069</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2920.347640318069</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2519.704242487022</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2118.767569435112</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>514.3934979128359</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>514.3934979128359</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>1239.410613301109</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1239.410613301109</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>1943.367703847003</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.0193557949199</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C43" t="n">
-        <v>241.0193557949199</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D43" t="n">
-        <v>241.0193557949199</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E43" t="n">
-        <v>241.0193557949199</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F43" t="n">
-        <v>241.0193557949199</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>241.0193557949199</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>174.9332875432111</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>793.9747653465236</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V43" t="n">
-        <v>520.0890202860455</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W43" t="n">
-        <v>241.0193557949199</v>
+        <v>447.9336057266133</v>
       </c>
       <c r="X43" t="n">
-        <v>241.0193557949199</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.0193557949199</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1298.470528487747</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C44" t="n">
-        <v>888.3459378010175</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D44" t="n">
-        <v>888.3459378010175</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E44" t="n">
-        <v>888.3459378010175</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>467.315525754705</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>82.5489496814065</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>795.1403494936445</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1520.157464881917</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2245.17458027019</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2888.805436687295</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>4559.51725636241</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>4337.310772309269</v>
       </c>
       <c r="U44" t="n">
-        <v>2894.032079900026</v>
+        <v>4080.250280568779</v>
       </c>
       <c r="V44" t="n">
-        <v>2894.032079900026</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W44" t="n">
-        <v>2510.271779035194</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X44" t="n">
-        <v>2109.628381204147</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y44" t="n">
-        <v>1708.691708152237</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1561.703728412895</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>1427.70865716184</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>1310.811499381233</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>1190.318683373561</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>1081.358803556065</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>974.3686908704041</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>903.6214779061202</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1607.890001914633</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>2225.404991830966</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2821.372072491169</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>2662.030208678177</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>2464.679397816396</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>2250.96787080943</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>2037.734702545758</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1861.408720684651</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>1702.006761048481</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2056.093143892473</v>
+        <v>326.0307351702296</v>
       </c>
       <c r="C46" t="n">
-        <v>1884.99977145419</v>
+        <v>326.0307351702296</v>
       </c>
       <c r="D46" t="n">
-        <v>1725.5051267771</v>
+        <v>166.5360904931396</v>
       </c>
       <c r="E46" t="n">
-        <v>1564.594311645419</v>
+        <v>166.5360904931396</v>
       </c>
       <c r="F46" t="n">
-        <v>1399.96318575601</v>
+        <v>166.5360904931396</v>
       </c>
       <c r="G46" t="n">
-        <v>1399.96318575601</v>
+        <v>166.5360904931396</v>
       </c>
       <c r="H46" t="n">
-        <v>1399.96318575601</v>
+        <v>166.5360904931396</v>
       </c>
       <c r="I46" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>1414.045735161221</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>1568.598062883459</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>1828.495163163519</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>2117.759219604013</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>2398.598001998263</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>2658.158612324737</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>2863.834052574349</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>2929.36208237686</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>2929.36208237686</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>2929.36208237686</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>2929.36208237686</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V46" t="n">
-        <v>2929.36208237686</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W46" t="n">
-        <v>2650.292417885735</v>
+        <v>789.1102959217815</v>
       </c>
       <c r="X46" t="n">
-        <v>2411.948555745418</v>
+        <v>550.7664337814649</v>
       </c>
       <c r="Y46" t="n">
-        <v>2243.792850286517</v>
+        <v>326.0307351702296</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>753.8784932239575</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>440.3187702018427</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>789.9048043326325</v>
+        <v>532.4592375477436</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>345.9430299987242</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>694.9478317073829</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8459,22 +8461,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>572.9515109149573</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>97.7560403036063</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8538,19 +8540,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>789.9048043326325</v>
+        <v>781.8318064390065</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>575.2913112785058</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>448.410188202353</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>681.3167988054204</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9182,10 +9184,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>146.9151984756836</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>221.0980889259028</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9954,10 +9956,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>529.7246381472005</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -9966,10 +9968,10 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>110.7613274818897</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10437,19 +10439,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>527.9363279870926</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>558.8606699624394</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>745.8914891781321</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10899,22 +10901,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>587.2585395161113</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
@@ -11060,16 +11062,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9640093582398</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>217.6017902058686</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>113.340135161974</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11382,13 +11384,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>676.9459084607525</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.2025156122553</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.35263051300471</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>10.65670172208848</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.059550522558</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23786,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>187.994239071986</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>42.06483528720071</v>
       </c>
     </row>
     <row r="18">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>57.20702133496263</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23908,7 +23910,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>86.1152248083673</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>45.55681957367926</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>2.675513190176446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>55.35263051300549</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>100.1526795945202</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.62825338651848</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24452,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24604,10 +24606,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>52.17362106342065</v>
       </c>
       <c r="X28" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>92.9513909920158</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.8409721381277</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F32" t="n">
-        <v>96.14494677818607</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24974,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>121.1291855265553</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25163,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>37.84312462897418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>61.68852608917703</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>126.9450269688242</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.214916324195059</v>
+        <v>57.0666462400651</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>245.5655891848821</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>82.6861730734062</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>170.5352159497216</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>32.28731256679784</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>219.5131843710188</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26041,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>42.62311656222545</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>56.01419322081125</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>739310.0491813737</v>
+        <v>735996.2543666082</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>739310.0491813737</v>
+        <v>735996.2543666082</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>739310.0491813737</v>
+        <v>744713.5774182864</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>512650.0576029283</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512650.057602928</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666681.5601910447</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666681.5601910449</v>
+        <v>666681.5601910447</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666681.5601910447</v>
+        <v>666681.5601910446</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666681.5601910449</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666681.5601910447</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>512650.0576029283</v>
+        <v>666681.5601910449</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>512650.057602928</v>
+        <v>666681.5601910449</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.2218843881</v>
+        <v>423494.221884388</v>
       </c>
       <c r="C2" t="n">
-        <v>423494.2218843881</v>
+        <v>423494.221884388</v>
       </c>
       <c r="D2" t="n">
         <v>423494.2218843881</v>
       </c>
       <c r="E2" t="n">
-        <v>289558.7723153068</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="F2" t="n">
-        <v>289558.7723153067</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="G2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="H2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="I2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="J2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956217</v>
       </c>
       <c r="K2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="L2" t="n">
-        <v>376543.2677956217</v>
+        <v>376543.2677956221</v>
       </c>
       <c r="M2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="N2" t="n">
-        <v>376543.2677956221</v>
+        <v>376543.267795622</v>
       </c>
       <c r="O2" t="n">
-        <v>289558.7723153068</v>
+        <v>376543.267795622</v>
       </c>
       <c r="P2" t="n">
-        <v>289558.7723153067</v>
+        <v>376543.2677956219</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140769.9845623025</v>
+        <v>174432.0962319951</v>
       </c>
       <c r="C4" t="n">
-        <v>140769.9845623025</v>
+        <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>140769.9845623024</v>
+        <v>85879.99254746168</v>
       </c>
       <c r="E4" t="n">
-        <v>23160.83861544975</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="F4" t="n">
-        <v>23160.83861544975</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="H4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="I4" t="n">
         <v>30192.61954398331</v>
@@ -26451,13 +26453,13 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
+        <v>30192.61954398332</v>
+      </c>
+      <c r="O4" t="n">
         <v>30192.61954398331</v>
       </c>
-      <c r="O4" t="n">
-        <v>23160.83861544975</v>
-      </c>
       <c r="P4" t="n">
-        <v>23160.83861544975</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40853.81861313779</v>
+        <v>8737.550680781365</v>
       </c>
       <c r="C6" t="n">
-        <v>204570.3336699574</v>
+        <v>183693.0605738954</v>
       </c>
       <c r="D6" t="n">
-        <v>204570.3336699574</v>
+        <v>66785.68907165766</v>
       </c>
       <c r="E6" t="n">
-        <v>221871.6300477288</v>
+        <v>248516.4838258311</v>
       </c>
       <c r="F6" t="n">
-        <v>221871.6300477287</v>
+        <v>275485.4380067653</v>
       </c>
       <c r="G6" t="n">
-        <v>156750.2535746512</v>
+        <v>275485.4380067653</v>
       </c>
       <c r="H6" t="n">
         <v>275485.4380067653</v>
       </c>
       <c r="I6" t="n">
+        <v>275485.4380067652</v>
+      </c>
+      <c r="J6" t="n">
+        <v>138890.6372008701</v>
+      </c>
+      <c r="K6" t="n">
+        <v>275485.4380067652</v>
+      </c>
+      <c r="L6" t="n">
+        <v>135486.1271420127</v>
+      </c>
+      <c r="M6" t="n">
+        <v>252976.1732327179</v>
+      </c>
+      <c r="N6" t="n">
+        <v>275485.4380067654</v>
+      </c>
+      <c r="O6" t="n">
+        <v>275485.4380067654</v>
+      </c>
+      <c r="P6" t="n">
         <v>275485.4380067653</v>
-      </c>
-      <c r="J6" t="n">
-        <v>83872.93483641256</v>
-      </c>
-      <c r="K6" t="n">
-        <v>275485.4380067654</v>
-      </c>
-      <c r="L6" t="n">
-        <v>275485.4380067651</v>
-      </c>
-      <c r="M6" t="n">
-        <v>275485.4380067653</v>
-      </c>
-      <c r="N6" t="n">
-        <v>275485.4380067655</v>
-      </c>
-      <c r="O6" t="n">
-        <v>221871.6300477288</v>
-      </c>
-      <c r="P6" t="n">
-        <v>221871.6300477287</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>10.8298618043213</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.11984319119351</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>41.96753980825633</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>322.0532631891312</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>260.7519646761684</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27673,10 +27675,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27834,10 +27836,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>113.6209157071209</v>
       </c>
       <c r="X7" t="n">
-        <v>82.63048261091075</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>199.6184632464714</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>318.541732409428</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>43.91797545344072</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28029,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.893130557884604</v>
       </c>
     </row>
     <row r="11">
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>658.3930951611127</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>384.2042463909936</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>732.340520594215</v>
+        <v>474.8949538093261</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>250.4576319358794</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>637.1963527073829</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35179,22 +35181,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>479.7617352891742</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>7.722235904454253</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>732.340520594215</v>
+        <v>724.2675227005891</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>521.031676275702</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>390.8459044639355</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>623.7525150670029</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35902,10 +35904,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>91.08941569106818</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>163.5338051874854</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,10 +36688,10 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>56.50169247908597</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>474.7429345933426</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>688.3272054397147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37619,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>529.5070605161113</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>360.6737849011943</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>163.3421552030649</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>24.20374548875686</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>623.7525150670026</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1654362.246152328</v>
+        <v>1653049.600696748</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029741</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>271.7217630959508</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>77.36840186490406</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>180.6077930059085</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>81.84112982491028</v>
       </c>
       <c r="H5" t="n">
-        <v>47.04744772239076</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1062,7 +1062,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1071,10 +1071,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>162.6580521390935</v>
+        <v>13.88126300749879</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>7.403252162746612</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1147,7 +1147,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1186,13 +1186,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>27.79744670745611</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>190.3381595318039</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>77.72590661309994</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1587,16 +1587,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>399.5401116061838</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>211.6544656203731</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.421695385058</v>
+        <v>68.10039301267449</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>350.5750266479509</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.8624710341901</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.6156879951413</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>180.6077930059089</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8600882386058</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>215.7942570968678</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>31.42227043795236</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2529,10 +2529,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>197.3419125928186</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>224.1053467827937</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>185.2530431316087</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>117.4784251967216</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="U31" t="n">
-        <v>2.129193841209417</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>56.1288270108368</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3201,13 +3201,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>220.2647746254034</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,10 +3277,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -3331,10 +3331,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>351.080144279057</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>96.21117214114204</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3441,10 +3441,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>122.1857609060769</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9184445944652</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>128.7560630900389</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>269.9562877695847</v>
+        <v>401.5578040935733</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>105.7437518964927</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>186.6550518816532</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>101.6409518870423</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>72.55946887449166</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -4194,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>186.6033357530006</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1277.389703984565</v>
+        <v>1199.239803110925</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.305517338239</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D2" t="n">
-        <v>866.8415874313</v>
+        <v>1192.732090598063</v>
       </c>
       <c r="E2" t="n">
-        <v>856.5417759886008</v>
+        <v>778.3918751149602</v>
       </c>
       <c r="F2" t="n">
-        <v>839.5517679826924</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G2" t="n">
-        <v>430.8234838755245</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>119.9149865032425</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X2" t="n">
-        <v>1687.610883649055</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.610883649055</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M3" t="n">
-        <v>704.7239474634683</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>41.76508562960205</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1339.894384246108</v>
+        <v>555.4906855502296</v>
       </c>
       <c r="C5" t="n">
-        <v>929.7697935593784</v>
+        <v>549.4064989039038</v>
       </c>
       <c r="D5" t="n">
-        <v>929.346267692843</v>
+        <v>548.9829730373683</v>
       </c>
       <c r="E5" t="n">
-        <v>515.0060522097397</v>
+        <v>538.6831615946691</v>
       </c>
       <c r="F5" t="n">
-        <v>498.0160442038313</v>
+        <v>521.6931535887607</v>
       </c>
       <c r="G5" t="n">
-        <v>89.28776009666342</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>41.76508562960205</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625949</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4606,13 +4606,13 @@
         <v>1346.075159870194</v>
       </c>
       <c r="W5" t="n">
-        <v>1346.075159870194</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X5" t="n">
-        <v>1346.075159870194</v>
+        <v>561.671461174315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1346.075159870194</v>
+        <v>561.671461174315</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.100145893876</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>704.2346197088409</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>533.1412472705574</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>373.6466025934674</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>373.6466025934674</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1167.314180460393</v>
+        <v>1557.1425044651</v>
       </c>
       <c r="X7" t="n">
-        <v>928.9703183200762</v>
+        <v>1318.798642324783</v>
       </c>
       <c r="Y7" t="n">
-        <v>704.2346197088409</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1323.336493118757</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>908.9962776356538</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>487.9658655893414</v>
       </c>
       <c r="G8" t="n">
         <v>483.2779855225776</v>
@@ -4822,10 +4822,10 @@
         <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>4293.241259823028</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>4300.886273368438</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
@@ -4834,22 +4834,22 @@
         <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4165.605198162539</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4165.605198162539</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>4137.526969165108</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3753.766668300277</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3353.12327046923</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2952.18659741732</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326674</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>541.8239817326674</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>1258.848829206251</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="N9" t="n">
-        <v>2132.506921317869</v>
+        <v>866.8439382834442</v>
       </c>
       <c r="O9" t="n">
-        <v>2132.506921317869</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
         <v>2132.506921317869</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.01772546736876</v>
+        <v>1010.720449879097</v>
       </c>
       <c r="C10" t="n">
-        <v>86.01772546736876</v>
+        <v>839.6270774408131</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736876</v>
+        <v>680.132432763723</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736876</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736876</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4992,22 +4992,22 @@
         <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1375.867883064921</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1093.069735611045</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>819.1839905505669</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>540.1143260594413</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>301.7704639191247</v>
+        <v>1423.155854884376</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736876</v>
+        <v>1198.420156273141</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E11" t="n">
-        <v>899.2322418529996</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H11" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N12" t="n">
-        <v>1627.989961721529</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>634.8342752230838</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>396.4904130827671</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>171.7547144715318</v>
       </c>
     </row>
     <row r="14">
@@ -5263,25 +5263,25 @@
         <v>1637.486761525662</v>
       </c>
       <c r="E14" t="n">
-        <v>1233.910891216385</v>
+        <v>1223.146546042558</v>
       </c>
       <c r="F14" t="n">
-        <v>812.8804791700727</v>
+        <v>802.1161339962459</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1521950629048</v>
+        <v>393.3878498890781</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5360,13 +5360,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N15" t="n">
         <v>1435.775802995229</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>574.8553404551301</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>1537.369875986873</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W16" t="n">
-        <v>1537.369875986873</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X16" t="n">
-        <v>1537.369875986873</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>762.5550468491745</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2144.727460069145</v>
+        <v>2494.579294402201</v>
       </c>
       <c r="C17" t="n">
-        <v>1734.602869382415</v>
+        <v>2084.454703715471</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1679.990773808531</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1265.650558325428</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>844.6201462791155</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y17" t="n">
-        <v>2554.948639733635</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>916.2303367455215</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>749.3736558270855</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.024190797049</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X19" t="n">
-        <v>1104.024190797049</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.2884921858141</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>3650.199514541731</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W22" t="n">
-        <v>3371.129850050606</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>828.6312213896092</v>
       </c>
     </row>
     <row r="23">
@@ -5992,7 +5992,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6019,10 +6019,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
         <v>4058.401178705436</v>
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3726.900695206644</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C25" t="n">
-        <v>3726.900695206644</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D25" t="n">
-        <v>3726.900695206644</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
-        <v>3565.989880074963</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U25" t="n">
-        <v>3951.636393817879</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V25" t="n">
-        <v>3951.636393817879</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W25" t="n">
-        <v>3951.636393817879</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X25" t="n">
-        <v>3951.636393817879</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="Y25" t="n">
-        <v>3726.900695206644</v>
+        <v>1350.978107866783</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3453.19144771906</v>
+        <v>1023.082903314669</v>
       </c>
       <c r="C28" t="n">
-        <v>3453.19144771906</v>
+        <v>851.989530876386</v>
       </c>
       <c r="D28" t="n">
-        <v>3293.69680304197</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4236.244377387751</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>3953.446229933875</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>3679.560484873397</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>3453.19144771906</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>3453.19144771906</v>
+        <v>1435.518308319949</v>
       </c>
       <c r="Y28" t="n">
-        <v>3453.19144771906</v>
+        <v>1210.782609708714</v>
       </c>
     </row>
     <row r="29">
@@ -6463,7 +6463,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6490,10 +6490,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4408.238733368956</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
         <v>4408.238733368956</v>
@@ -6545,25 +6545,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6651,22 +6651,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="U31" t="n">
-        <v>1109.278667993779</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="V31" t="n">
-        <v>835.3929229333004</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="W31" t="n">
-        <v>556.3232584421747</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="X31" t="n">
-        <v>317.9793963018581</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>1182.57754799176</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
         <v>899.2322418529996</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1640.177868931084</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>749.3736558270855</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C34" t="n">
-        <v>578.280283388802</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D34" t="n">
-        <v>418.7856387117121</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>257.8748235800315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.642594311473</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W34" t="n">
-        <v>1400.152922972682</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="X34" t="n">
-        <v>1161.809060832365</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="Y34" t="n">
-        <v>937.0733622211299</v>
+        <v>1068.179960412907</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
         <v>490.5039577458317</v>
@@ -6979,10 +6979,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4010.200740502562</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="C37" t="n">
-        <v>3839.107368064279</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="D37" t="n">
-        <v>3741.924365901509</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="E37" t="n">
-        <v>3581.013550769829</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="F37" t="n">
-        <v>3416.38242488042</v>
+        <v>383.9140492762682</v>
       </c>
       <c r="G37" t="n">
-        <v>3249.132033805963</v>
+        <v>216.6636582018116</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>4422.636145507842</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V37" t="n">
-        <v>4422.636145507842</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W37" t="n">
-        <v>4422.636145507842</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X37" t="n">
-        <v>4422.636145507842</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y37" t="n">
-        <v>4197.900446896607</v>
+        <v>548.5451751656769</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7207,19 +7207,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>2615.69568868064</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>3458.672769375206</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>4332.330861486824</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.369875986873</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.369875986873</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W40" t="n">
-        <v>1537.369875986873</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X40" t="n">
-        <v>1537.369875986873</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y40" t="n">
-        <v>1312.634177375637</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F41" t="n">
-        <v>452.2785793327262</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.5897435862967</v>
+        <v>1021.666732860079</v>
       </c>
       <c r="C43" t="n">
-        <v>209.5897435862967</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="D43" t="n">
-        <v>209.5897435862967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E43" t="n">
-        <v>209.5897435862967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>209.5897435862967</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
         <v>209.5897435862967</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>447.9336057266133</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X43" t="n">
-        <v>209.5897435862967</v>
+        <v>1434.102137865359</v>
       </c>
       <c r="Y43" t="n">
-        <v>209.5897435862967</v>
+        <v>1209.366439254123</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.851174492981</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.726583806251</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4559.51725636241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4337.310772309269</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4080.250280568779</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3730.41272590526</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3346.652425040428</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2946.009027209381</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2545.072354157471</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>326.0307351702296</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="C46" t="n">
-        <v>326.0307351702296</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="D46" t="n">
-        <v>166.5360904931396</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E46" t="n">
-        <v>166.5360904931396</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>166.5360904931396</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5360904931396</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>166.5360904931396</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U46" t="n">
-        <v>1068.179960412907</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V46" t="n">
-        <v>1068.179960412907</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W46" t="n">
-        <v>789.1102959217815</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="X46" t="n">
-        <v>550.7664337814649</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="Y46" t="n">
-        <v>326.0307351702296</v>
+        <v>691.0787157447054</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>552.9160747585987</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -7999,7 +7999,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>169.1029840574857</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8066,22 +8066,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>532.4592375477436</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>228.5110173896169</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>198.9610844237783</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>94.81936791818303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8470,13 +8470,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>628.1510783507341</v>
+        <v>270.501948108868</v>
       </c>
       <c r="Q8" t="n">
-        <v>97.7560403036063</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>781.8318064390065</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>841.906739672614</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8710,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8771,7 +8771,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
@@ -8780,13 +8780,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>574.6635313430244</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>285.4811293141939</v>
       </c>
       <c r="N15" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9245,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M18" t="n">
-        <v>221.0980889259028</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>613.6913745331453</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10193,28 +10193,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>558.8606699624394</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10667,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10907,25 +10907,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>506.3432205021228</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11144,25 +11144,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>506.3432205021228</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,25 +11381,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>506.3432205021228</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>108.096802717004</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>10.65670172208848</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>96.14494677818604</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -23712,16 +23712,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006493</v>
+        <v>154.3879486124484</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>54.06597461814516</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.06483528720071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.20702133496263</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>41.88054861921404</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>29.5223504752949</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>55.35263051300549</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24259,13 +24259,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>223.0676163851326</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>19.10615505383078</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>82.62825338651848</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24432,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>52.17362106342065</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>50.70738038730474</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>102.5059940158882</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>70.43669735679174</v>
       </c>
       <c r="U31" t="n">
-        <v>277.8409721381277</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>129.6938823192671</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>56.01419322081091</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>61.68852608917703</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>25.92561973652099</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>88.57144222861982</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.0666462400651</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>134.6847134965114</v>
+        <v>3.083197172522773</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>170.5352159497216</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.30537163726024</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.28731256679784</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>42.62311656222545</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>89.67563209321372</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666681.5601910448</v>
+        <v>666681.5601910447</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666681.5601910448</v>
+        <v>666681.5601910449</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666681.5601910447</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666681.5601910447</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666681.5601910446</v>
+        <v>666681.5601910449</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666681.5601910449</v>
+        <v>666681.5601910447</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666681.5601910449</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666681.5601910449</v>
+        <v>666681.5601910448</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666681.5601910449</v>
+        <v>666681.5601910447</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.221884388</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="C2" t="n">
         <v>423494.221884388</v>
       </c>
       <c r="D2" t="n">
-        <v>423494.2218843881</v>
+        <v>423494.221884388</v>
       </c>
       <c r="E2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.267795622</v>
       </c>
       <c r="F2" t="n">
         <v>376543.2677956219</v>
@@ -26334,28 +26334,28 @@
         <v>376543.2677956219</v>
       </c>
       <c r="I2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.267795622</v>
       </c>
       <c r="J2" t="n">
-        <v>376543.2677956217</v>
+        <v>376543.267795622</v>
       </c>
       <c r="K2" t="n">
-        <v>376543.2677956218</v>
+        <v>376543.267795622</v>
       </c>
       <c r="L2" t="n">
+        <v>376543.2677956219</v>
+      </c>
+      <c r="M2" t="n">
+        <v>376543.267795622</v>
+      </c>
+      <c r="N2" t="n">
         <v>376543.2677956221</v>
       </c>
-      <c r="M2" t="n">
-        <v>376543.2677956219</v>
-      </c>
-      <c r="N2" t="n">
-        <v>376543.267795622</v>
-      </c>
       <c r="O2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956222</v>
       </c>
       <c r="P2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.2677956221</v>
       </c>
     </row>
     <row r="3">
@@ -26423,25 +26423,25 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>85879.99254746168</v>
+        <v>85879.9925474617</v>
       </c>
       <c r="E4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="H4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="J4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
         <v>30192.61954398331</v>
@@ -26453,7 +26453,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
         <v>30192.61954398331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8737.550680781365</v>
+        <v>8737.550680781358</v>
       </c>
       <c r="C6" t="n">
         <v>183693.0605738954</v>
       </c>
       <c r="D6" t="n">
-        <v>66785.68907165766</v>
+        <v>66785.68907165757</v>
       </c>
       <c r="E6" t="n">
-        <v>248516.4838258311</v>
+        <v>248335.9032331821</v>
       </c>
       <c r="F6" t="n">
-        <v>275485.4380067653</v>
+        <v>275304.8574141162</v>
       </c>
       <c r="G6" t="n">
-        <v>275485.4380067653</v>
+        <v>275304.8574141162</v>
       </c>
       <c r="H6" t="n">
-        <v>275485.4380067653</v>
+        <v>275304.8574141162</v>
       </c>
       <c r="I6" t="n">
-        <v>275485.4380067652</v>
+        <v>275304.8574141163</v>
       </c>
       <c r="J6" t="n">
-        <v>138890.6372008701</v>
+        <v>138710.0566082213</v>
       </c>
       <c r="K6" t="n">
-        <v>275485.4380067652</v>
+        <v>275304.8574141163</v>
       </c>
       <c r="L6" t="n">
-        <v>135486.1271420127</v>
+        <v>135305.5465493635</v>
       </c>
       <c r="M6" t="n">
-        <v>252976.1732327179</v>
+        <v>252795.5926400689</v>
       </c>
       <c r="N6" t="n">
-        <v>275485.4380067654</v>
+        <v>275304.8574141164</v>
       </c>
       <c r="O6" t="n">
-        <v>275485.4380067654</v>
+        <v>275304.8574141164</v>
       </c>
       <c r="P6" t="n">
-        <v>275485.4380067653</v>
+        <v>275304.8574141164</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>134.3972047718937</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.11984319119351</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27444,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>55.35263051300493</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>322.7998714411858</v>
       </c>
       <c r="H5" t="n">
-        <v>260.7519646761684</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -27836,13 +27836,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>113.6209157071209</v>
+        <v>262.3977048387156</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>393.0160384451234</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>318.541732409428</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>45.62226398710956</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.893130557884604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>460.0037840019794</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>135.5987266329976</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>147.5918456237783</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35190,13 +35190,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>534.50171506985</v>
+        <v>176.8525848279838</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.722235904454253</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>724.2675227005891</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>788.713346278864</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35430,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>516.9120523430244</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="N15" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M18" t="n">
-        <v>163.5338051874854</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>560.4979811393954</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>504.6010349596356</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
